--- a/ERP/ERP.Web/Content/Files/IMPORT_SYSTEM_ACCOUNT.xlsx
+++ b/ERP/ERP.Web/Content/Files/IMPORT_SYSTEM_ACCOUNT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="606">
   <si>
     <t>Tên TK</t>
   </si>
@@ -34,19 +34,1824 @@
   </si>
   <si>
     <t>Diễn giải</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>1281</t>
+  </si>
+  <si>
+    <t>1288</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>1368</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>1381</t>
+  </si>
+  <si>
+    <t>1383</t>
+  </si>
+  <si>
+    <t>1386</t>
+  </si>
+  <si>
+    <t>1388</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>1411</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>1541</t>
+  </si>
+  <si>
+    <t>1542</t>
+  </si>
+  <si>
+    <t>15421</t>
+  </si>
+  <si>
+    <t>15422</t>
+  </si>
+  <si>
+    <t>15423</t>
+  </si>
+  <si>
+    <t>15424</t>
+  </si>
+  <si>
+    <t>15425</t>
+  </si>
+  <si>
+    <t>15426</t>
+  </si>
+  <si>
+    <t>15427</t>
+  </si>
+  <si>
+    <t>15428</t>
+  </si>
+  <si>
+    <t>15429</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>15431</t>
+  </si>
+  <si>
+    <t>15432</t>
+  </si>
+  <si>
+    <t>15433</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>1561</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>21111</t>
+  </si>
+  <si>
+    <t>21112</t>
+  </si>
+  <si>
+    <t>21113</t>
+  </si>
+  <si>
+    <t>21114</t>
+  </si>
+  <si>
+    <t>21115</t>
+  </si>
+  <si>
+    <t>21116</t>
+  </si>
+  <si>
+    <t>21118</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2113</t>
+  </si>
+  <si>
+    <t>21131</t>
+  </si>
+  <si>
+    <t>21132</t>
+  </si>
+  <si>
+    <t>21133</t>
+  </si>
+  <si>
+    <t>21134</t>
+  </si>
+  <si>
+    <t>21135</t>
+  </si>
+  <si>
+    <t>21136</t>
+  </si>
+  <si>
+    <t>21138</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>2141</t>
+  </si>
+  <si>
+    <t>2142</t>
+  </si>
+  <si>
+    <t>2143</t>
+  </si>
+  <si>
+    <t>2147</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>2281</t>
+  </si>
+  <si>
+    <t>2288</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>2291</t>
+  </si>
+  <si>
+    <t>2292</t>
+  </si>
+  <si>
+    <t>2293</t>
+  </si>
+  <si>
+    <t>2294</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2413</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>2421</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>3331</t>
+  </si>
+  <si>
+    <t>33311</t>
+  </si>
+  <si>
+    <t>33312</t>
+  </si>
+  <si>
+    <t>3332</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>3334</t>
+  </si>
+  <si>
+    <t>3335</t>
+  </si>
+  <si>
+    <t>3336</t>
+  </si>
+  <si>
+    <t>3337</t>
+  </si>
+  <si>
+    <t>3338</t>
+  </si>
+  <si>
+    <t>33381</t>
+  </si>
+  <si>
+    <t>33382</t>
+  </si>
+  <si>
+    <t>3339</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>3361</t>
+  </si>
+  <si>
+    <t>3368</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>3381</t>
+  </si>
+  <si>
+    <t>3382</t>
+  </si>
+  <si>
+    <t>3383</t>
+  </si>
+  <si>
+    <t>3384</t>
+  </si>
+  <si>
+    <t>3385</t>
+  </si>
+  <si>
+    <t>3386</t>
+  </si>
+  <si>
+    <t>33861</t>
+  </si>
+  <si>
+    <t>33862</t>
+  </si>
+  <si>
+    <t>3387</t>
+  </si>
+  <si>
+    <t>3388</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>3411</t>
+  </si>
+  <si>
+    <t>34111</t>
+  </si>
+  <si>
+    <t>34112</t>
+  </si>
+  <si>
+    <t>3412</t>
+  </si>
+  <si>
+    <t>34121</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>3521</t>
+  </si>
+  <si>
+    <t>3522</t>
+  </si>
+  <si>
+    <t>3524</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>3531</t>
+  </si>
+  <si>
+    <t>3532</t>
+  </si>
+  <si>
+    <t>3533</t>
+  </si>
+  <si>
+    <t>3534</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>3561</t>
+  </si>
+  <si>
+    <t>3562</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>4111</t>
+  </si>
+  <si>
+    <t>4112</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>4211</t>
+  </si>
+  <si>
+    <t>4212</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>5111</t>
+  </si>
+  <si>
+    <t>51111</t>
+  </si>
+  <si>
+    <t>51112</t>
+  </si>
+  <si>
+    <t>5112</t>
+  </si>
+  <si>
+    <t>5113</t>
+  </si>
+  <si>
+    <t>5118</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>631</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>635</t>
+  </si>
+  <si>
+    <t>642</t>
+  </si>
+  <si>
+    <t>6421</t>
+  </si>
+  <si>
+    <t>64211</t>
+  </si>
+  <si>
+    <t>642111</t>
+  </si>
+  <si>
+    <t>642112</t>
+  </si>
+  <si>
+    <t>642113</t>
+  </si>
+  <si>
+    <t>642114</t>
+  </si>
+  <si>
+    <t>642115</t>
+  </si>
+  <si>
+    <t>642116</t>
+  </si>
+  <si>
+    <t>642117</t>
+  </si>
+  <si>
+    <t>642119</t>
+  </si>
+  <si>
+    <t>64212</t>
+  </si>
+  <si>
+    <t>6422</t>
+  </si>
+  <si>
+    <t>64221</t>
+  </si>
+  <si>
+    <t>642211</t>
+  </si>
+  <si>
+    <t>642212</t>
+  </si>
+  <si>
+    <t>642213</t>
+  </si>
+  <si>
+    <t>642214</t>
+  </si>
+  <si>
+    <t>642215</t>
+  </si>
+  <si>
+    <t>642216</t>
+  </si>
+  <si>
+    <t>642217</t>
+  </si>
+  <si>
+    <t>642218</t>
+  </si>
+  <si>
+    <t>642219</t>
+  </si>
+  <si>
+    <t>64222</t>
+  </si>
+  <si>
+    <t>642221</t>
+  </si>
+  <si>
+    <t>642222</t>
+  </si>
+  <si>
+    <t>642223</t>
+  </si>
+  <si>
+    <t>64223</t>
+  </si>
+  <si>
+    <t>642231</t>
+  </si>
+  <si>
+    <t>642232</t>
+  </si>
+  <si>
+    <t>642233</t>
+  </si>
+  <si>
+    <t>642234</t>
+  </si>
+  <si>
+    <t>642235</t>
+  </si>
+  <si>
+    <t>642239</t>
+  </si>
+  <si>
+    <t>64224</t>
+  </si>
+  <si>
+    <t>642241</t>
+  </si>
+  <si>
+    <t>642249</t>
+  </si>
+  <si>
+    <t>64225</t>
+  </si>
+  <si>
+    <t>64226</t>
+  </si>
+  <si>
+    <t>642261</t>
+  </si>
+  <si>
+    <t>642262</t>
+  </si>
+  <si>
+    <t>642263</t>
+  </si>
+  <si>
+    <t>642264</t>
+  </si>
+  <si>
+    <t>642265</t>
+  </si>
+  <si>
+    <t>642266</t>
+  </si>
+  <si>
+    <t>64227</t>
+  </si>
+  <si>
+    <t>642271</t>
+  </si>
+  <si>
+    <t>642272</t>
+  </si>
+  <si>
+    <t>642273</t>
+  </si>
+  <si>
+    <t>642274</t>
+  </si>
+  <si>
+    <t>64228</t>
+  </si>
+  <si>
+    <t>642281</t>
+  </si>
+  <si>
+    <t>642282</t>
+  </si>
+  <si>
+    <t>642283</t>
+  </si>
+  <si>
+    <t>642284</t>
+  </si>
+  <si>
+    <t>642289</t>
+  </si>
+  <si>
+    <t>64229</t>
+  </si>
+  <si>
+    <t>642291</t>
+  </si>
+  <si>
+    <t>642292</t>
+  </si>
+  <si>
+    <t>642293</t>
+  </si>
+  <si>
+    <t>642294</t>
+  </si>
+  <si>
+    <t>642295</t>
+  </si>
+  <si>
+    <t>642296</t>
+  </si>
+  <si>
+    <t>642297</t>
+  </si>
+  <si>
+    <t>642298</t>
+  </si>
+  <si>
+    <t>642299</t>
+  </si>
+  <si>
+    <t>6423</t>
+  </si>
+  <si>
+    <t>64231</t>
+  </si>
+  <si>
+    <t>64232</t>
+  </si>
+  <si>
+    <t>64233</t>
+  </si>
+  <si>
+    <t>6424</t>
+  </si>
+  <si>
+    <t>64241</t>
+  </si>
+  <si>
+    <t>64242</t>
+  </si>
+  <si>
+    <t>64243</t>
+  </si>
+  <si>
+    <t>6425</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>821</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>Tiền mặt</t>
+  </si>
+  <si>
+    <t>Tiền Việt Nam</t>
+  </si>
+  <si>
+    <t>Ngoại tệ</t>
+  </si>
+  <si>
+    <t>Tiền gửi Ngân hàng</t>
+  </si>
+  <si>
+    <t>Chứng khoán kinh doanh</t>
+  </si>
+  <si>
+    <t>Đầu tư nắm giữ đến ngày đáo hạn</t>
+  </si>
+  <si>
+    <t>Tiền gửi có kỳ hạn</t>
+  </si>
+  <si>
+    <t>Các khoản đầu tư khác nắm giữ đến ngày đáo hạn</t>
+  </si>
+  <si>
+    <t>Phải thu của khách hàng</t>
+  </si>
+  <si>
+    <t>Thuế GTGT được khấu trừ</t>
+  </si>
+  <si>
+    <t>Thuế GTGT được khấu trừ của hàng hóa, dịch vụ</t>
+  </si>
+  <si>
+    <t>Thuế GTGT được khấu trừ của TSCĐ</t>
+  </si>
+  <si>
+    <t>Phải thu nội bộ</t>
+  </si>
+  <si>
+    <t>Vốn kinh doanh ở đơn vị trực thuộc</t>
+  </si>
+  <si>
+    <t>Phải thu nội bộ khác</t>
+  </si>
+  <si>
+    <t>Phải thu khác</t>
+  </si>
+  <si>
+    <t>Tài sản thiếu chờ xử lý</t>
+  </si>
+  <si>
+    <t>cho nhân viên vay</t>
+  </si>
+  <si>
+    <t>Cầm cố, thế chấp, ký quỹ, ký cược</t>
+  </si>
+  <si>
+    <t>Tạm ứng</t>
+  </si>
+  <si>
+    <t>Tạm ứng mua hàng</t>
+  </si>
+  <si>
+    <t>Tạm ứng khác</t>
+  </si>
+  <si>
+    <t>Hàng mua đang đi đường</t>
+  </si>
+  <si>
+    <t>Nguyên liệu, vật liệu</t>
+  </si>
+  <si>
+    <t>Công cụ, dụng cụ</t>
+  </si>
+  <si>
+    <t>Chi phí sản xuất, kinh doanh dở dang</t>
+  </si>
+  <si>
+    <t>Lảm tủ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sửa chữa </t>
+  </si>
+  <si>
+    <t>Ghép mã</t>
+  </si>
+  <si>
+    <t>sửa chữa máy 3RT 1B</t>
+  </si>
+  <si>
+    <t>sửa chữa thay thế linh kiện máy ép 3RT 2A</t>
+  </si>
+  <si>
+    <t>sửa chữa thay thế linh kiện máy ép 3RT 2B</t>
+  </si>
+  <si>
+    <t>sửa chữa thay thế linh kiện máy ép 3RT 3A</t>
+  </si>
+  <si>
+    <t>sửa chữa thay thế linh kiện máy ép 3RT 3B</t>
+  </si>
+  <si>
+    <t>sửa chữa VKV 292M 380V 250W</t>
+  </si>
+  <si>
+    <t>sửa chữa amplier MR-J2S-700B4</t>
+  </si>
+  <si>
+    <t>sửa chữa amplier MR-J2S-200A4</t>
+  </si>
+  <si>
+    <t>Sửa chữa</t>
+  </si>
+  <si>
+    <t>Sửa chữa bộ điều khiển PSS 5100</t>
+  </si>
+  <si>
+    <t>Sửa chữa tín hiệu PLC</t>
+  </si>
+  <si>
+    <t>Sửa chữa amplifier MR-J2S-350B4</t>
+  </si>
+  <si>
+    <t>Thành phẩm</t>
+  </si>
+  <si>
+    <t>Hàng hóa</t>
+  </si>
+  <si>
+    <t>Hàng gửi đi bán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tài sản cố định </t>
+  </si>
+  <si>
+    <t>TSCĐ hữu hình</t>
+  </si>
+  <si>
+    <t>Nhà cửa, vật kiến trúc</t>
+  </si>
+  <si>
+    <t>Máy móc thiết bị</t>
+  </si>
+  <si>
+    <t>Phương tiện vận tải truyền dẫn</t>
+  </si>
+  <si>
+    <t>Thiết bị dụng cụ quản lý</t>
+  </si>
+  <si>
+    <t>Cây lâu năm, súc vật làm việc và cho sản phẩm</t>
+  </si>
+  <si>
+    <t>Các TSCĐ là kết cấu hạ tầng, có giá trị lớn do Nhà nước ĐTXD từ NSNN giao cho các tổ chức kinh tế quản lý, khai thác, sử dụng</t>
+  </si>
+  <si>
+    <t>TSCĐ khác</t>
+  </si>
+  <si>
+    <t>TSCĐ thuê tài chính</t>
+  </si>
+  <si>
+    <t>TSCĐ vô hình</t>
+  </si>
+  <si>
+    <t>Quyền sử dụng đất</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quyền phát hành </t>
+  </si>
+  <si>
+    <t>Bản quyền, bằng sáng chế</t>
+  </si>
+  <si>
+    <t>Nhãn hiệu hàng hóa</t>
+  </si>
+  <si>
+    <t>Phần mềm máy vi tính</t>
+  </si>
+  <si>
+    <t>Giấy phép và giấy chuyển nhượng quyền</t>
+  </si>
+  <si>
+    <t>TSCĐ vô hình khác</t>
+  </si>
+  <si>
+    <t>Hao mòn tài sản cố định</t>
+  </si>
+  <si>
+    <t>Hao mòn TSCĐ hữu hình</t>
+  </si>
+  <si>
+    <t>Hao mòn TSCĐ thuê tài chính</t>
+  </si>
+  <si>
+    <t>Hao mòn TSCĐ vô hình</t>
+  </si>
+  <si>
+    <t>Hao mòn bất động sản đầu tư</t>
+  </si>
+  <si>
+    <t>Bất động sản đầu tư</t>
+  </si>
+  <si>
+    <t>Đầu tư góp vốn vào đơn vị khác</t>
+  </si>
+  <si>
+    <t>Đầu tư vào công ty liên doanh, liên kết</t>
+  </si>
+  <si>
+    <t>Đầu tư khác</t>
+  </si>
+  <si>
+    <t>Dự phòng tổn thất tài sản</t>
+  </si>
+  <si>
+    <t>Dự phòng giảm giá chứng khoán kinh doanh</t>
+  </si>
+  <si>
+    <t>Dự phòng tổn thất đầu tư vào đơn vị khác</t>
+  </si>
+  <si>
+    <t>Dự phòng phải thu khó đòi</t>
+  </si>
+  <si>
+    <t>Dự phòng giảm giá hàng tồn kho</t>
+  </si>
+  <si>
+    <t>Xây dựng cơ bản dở dang</t>
+  </si>
+  <si>
+    <t>Mua sắm TSCĐ</t>
+  </si>
+  <si>
+    <t>Xây dựng cơ bản</t>
+  </si>
+  <si>
+    <t>Sửa chữa lớn TSCĐ</t>
+  </si>
+  <si>
+    <t>Chi phí trả trước</t>
+  </si>
+  <si>
+    <t>Chi phí trả trước ngắn hạn</t>
+  </si>
+  <si>
+    <t>Phải trả cho người bán</t>
+  </si>
+  <si>
+    <t>Thuế và các khoản phải nộp Nhà nước</t>
+  </si>
+  <si>
+    <t>Thuế giá trị gia tăng phải nộp</t>
+  </si>
+  <si>
+    <t>Thuế GTGT đầu ra</t>
+  </si>
+  <si>
+    <t>Thuế GTGT hàng nhập khẩu</t>
+  </si>
+  <si>
+    <t>Thuế tiêu thụ đặc biệt</t>
+  </si>
+  <si>
+    <t>Thuế xuất, nhập khẩu</t>
+  </si>
+  <si>
+    <t>Thuế thu nhập doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Thuế thu nhập cá nhân</t>
+  </si>
+  <si>
+    <t>Thuế tài nguyên</t>
+  </si>
+  <si>
+    <t>Thuế nhà đất, tiền thuê đất</t>
+  </si>
+  <si>
+    <t>Thuế bảo vệ môi trường và các loại thuế khác</t>
+  </si>
+  <si>
+    <t>Thuế bảo vệ môi trường</t>
+  </si>
+  <si>
+    <t>Các loại thuế khác</t>
+  </si>
+  <si>
+    <t>Phí, lệ phí và các khoản phải nộp khác</t>
+  </si>
+  <si>
+    <t>Phải trả người lao động</t>
+  </si>
+  <si>
+    <t>Chi phí phải trả</t>
+  </si>
+  <si>
+    <t>Phải trả nội bộ</t>
+  </si>
+  <si>
+    <t>Phải trả nội bộ về vốn kinh doanh</t>
+  </si>
+  <si>
+    <t>Phải trả nội bộ khác</t>
+  </si>
+  <si>
+    <t>Phải trả, phải nộp khác</t>
+  </si>
+  <si>
+    <t>Tài sản thừa chờ giải quyết</t>
+  </si>
+  <si>
+    <t>Kinh phí công đoàn</t>
+  </si>
+  <si>
+    <t>Bảo hiểm xã hội</t>
+  </si>
+  <si>
+    <t>Bảo hiểm y tế</t>
+  </si>
+  <si>
+    <t>Bảo hiểm thất nghiệp</t>
+  </si>
+  <si>
+    <t>Nhận ký quỹ, ký cược</t>
+  </si>
+  <si>
+    <t>Nhận ký quỹ, ký cược ngắn hạn</t>
+  </si>
+  <si>
+    <t>Nhận ký quỹ, ký cược dài hạn</t>
+  </si>
+  <si>
+    <t>Doanh thu chưa thực hiện</t>
+  </si>
+  <si>
+    <t>Vay và nợ thuê tài chính</t>
+  </si>
+  <si>
+    <t>Các khoản đi vay</t>
+  </si>
+  <si>
+    <t>Vay ngắn hạn</t>
+  </si>
+  <si>
+    <t>Vay dài hạn</t>
+  </si>
+  <si>
+    <t>Nợ thuê tài chính</t>
+  </si>
+  <si>
+    <t>Nợ dài hạn đến hạn trả</t>
+  </si>
+  <si>
+    <t>Dự phòng phải trả</t>
+  </si>
+  <si>
+    <t>Dự phòng bảo hành sản phẩm hàng hóa</t>
+  </si>
+  <si>
+    <t>Dự phòng bảo hành công trình xây dựng</t>
+  </si>
+  <si>
+    <t>Dự phòng phải trả khác</t>
+  </si>
+  <si>
+    <t>Quỹ khen thưởng, phúc lợi</t>
+  </si>
+  <si>
+    <t>Quỹ khen thưởng</t>
+  </si>
+  <si>
+    <t>Quỹ phúc lợi</t>
+  </si>
+  <si>
+    <t>Quỹ phúc lợi đã hình thành TSCĐ</t>
+  </si>
+  <si>
+    <t>Quỹ thưởng ban quản lý điều hành công ty</t>
+  </si>
+  <si>
+    <t>Quỹ phát triển khoa học và công nghệ</t>
+  </si>
+  <si>
+    <t>Quỹ phát triển khoa học và công nghệ đã hình thành TSCĐ</t>
+  </si>
+  <si>
+    <t>Vốn đầu tư của chủ sở hữu</t>
+  </si>
+  <si>
+    <t>Vốn góp của chủ sở hữu</t>
+  </si>
+  <si>
+    <t>Thặng dư vốn cổ phần</t>
+  </si>
+  <si>
+    <t>Vốn khác</t>
+  </si>
+  <si>
+    <t>Chênh lệch tỷ giá hối đoái</t>
+  </si>
+  <si>
+    <t>Các quỹ thuộc vốn chủ sở hữu</t>
+  </si>
+  <si>
+    <t>Cổ phiếu quỹ</t>
+  </si>
+  <si>
+    <t>Lợi nhuận sau thuế chưa phân phối</t>
+  </si>
+  <si>
+    <t>Lợi nhuận sau thuế chưa phân phối năm trước</t>
+  </si>
+  <si>
+    <t>Lợi nhuận sau thuế chưa phân phối năm nay</t>
+  </si>
+  <si>
+    <t>Doanh thu bán hàng và cung cấp dịch vụ</t>
+  </si>
+  <si>
+    <t>Doanh thu bán hàng hóa</t>
+  </si>
+  <si>
+    <t>Hàng bán bị trả lại</t>
+  </si>
+  <si>
+    <t>Doanh thu bán thành phẩm</t>
+  </si>
+  <si>
+    <t>Doanh thu cung cấp dịch vụ</t>
+  </si>
+  <si>
+    <t>Doanh thu khác</t>
+  </si>
+  <si>
+    <t>Doanh thu hoạt động tài chính</t>
+  </si>
+  <si>
+    <t>Mua hàng</t>
+  </si>
+  <si>
+    <t>Giá thành sản xuất</t>
+  </si>
+  <si>
+    <t>Giá vốn hàng bán</t>
+  </si>
+  <si>
+    <t>Chi phí tài chính</t>
+  </si>
+  <si>
+    <t>Chi phí quản lý kinh doanh</t>
+  </si>
+  <si>
+    <t>Chi phí bán hàng</t>
+  </si>
+  <si>
+    <t>Chi phí hoa hồng</t>
+  </si>
+  <si>
+    <t>Chi phí CM HOYA1</t>
+  </si>
+  <si>
+    <t>Chi phí CM HOYA2</t>
+  </si>
+  <si>
+    <t>Chi phí CM YAMAHA MOTOR</t>
+  </si>
+  <si>
+    <t>Chi phí CM AUSTFEED</t>
+  </si>
+  <si>
+    <t>Chi phí CM FOSTER</t>
+  </si>
+  <si>
+    <t>Chi phí CM OTO SHOWA</t>
+  </si>
+  <si>
+    <t>Chi phí CM SWCC SHOWA</t>
+  </si>
+  <si>
+    <t>Chi phí CM KH khác</t>
+  </si>
+  <si>
+    <t>Chi phí khác</t>
+  </si>
+  <si>
+    <t>Chi phí quản lý doanh nghiệp</t>
+  </si>
+  <si>
+    <t>CP Lương, thưởng, chế độ</t>
+  </si>
+  <si>
+    <t>CP Lương</t>
+  </si>
+  <si>
+    <t>CP thưởng</t>
+  </si>
+  <si>
+    <t>CP nghỉ mát, chế độ đãi ngộ</t>
+  </si>
+  <si>
+    <t>CP bảo hiểm</t>
+  </si>
+  <si>
+    <t>Chi đồng phục</t>
+  </si>
+  <si>
+    <t>Chi quà tết nhân viên</t>
+  </si>
+  <si>
+    <t>CP Đãi ngộ TA HCM</t>
+  </si>
+  <si>
+    <t>CP Đãi ngộ TA Đà Nẵng</t>
+  </si>
+  <si>
+    <t>CP Đãi ngộ TA Hải Phòng</t>
+  </si>
+  <si>
+    <t>CP thuê nhà</t>
+  </si>
+  <si>
+    <t>Tiền thuê nhà</t>
+  </si>
+  <si>
+    <t>Tiền điện nước</t>
+  </si>
+  <si>
+    <t>CP Thuế phát sinh do thuê nhà</t>
+  </si>
+  <si>
+    <t>CP ô tô</t>
+  </si>
+  <si>
+    <t>CP Khấu hao ô tô hằng năm</t>
+  </si>
+  <si>
+    <t>CP xăng xe</t>
+  </si>
+  <si>
+    <t>CP mua bảo hiểm ô tô</t>
+  </si>
+  <si>
+    <t>CP kiểm định, sửa chữa ô tô</t>
+  </si>
+  <si>
+    <t>Cước đường bộ</t>
+  </si>
+  <si>
+    <t>CP ô tô khác</t>
+  </si>
+  <si>
+    <t>CP vận chuyển</t>
+  </si>
+  <si>
+    <t>CP CPN</t>
+  </si>
+  <si>
+    <t>CP vận chuyển khác</t>
+  </si>
+  <si>
+    <t>CP mua hóa đơn</t>
+  </si>
+  <si>
+    <t>CP thuế</t>
+  </si>
+  <si>
+    <t>CP thuê môn bài</t>
+  </si>
+  <si>
+    <t>CP thuế TNDN</t>
+  </si>
+  <si>
+    <t>CP thuế TNCN</t>
+  </si>
+  <si>
+    <t>Tiền phạt từ thuế</t>
+  </si>
+  <si>
+    <t>Tiền chậm nộp thuế</t>
+  </si>
+  <si>
+    <t>CP mềm cho thuế</t>
+  </si>
+  <si>
+    <t>CP tiếp khách, máy bay, công tác phí</t>
+  </si>
+  <si>
+    <t>CP tiếp khách</t>
+  </si>
+  <si>
+    <t>CP máy bay</t>
+  </si>
+  <si>
+    <t>CP khách sạn</t>
+  </si>
+  <si>
+    <t>CP công tác phí</t>
+  </si>
+  <si>
+    <t>CP công cụ dụng cụ</t>
+  </si>
+  <si>
+    <t>CP bàn ghế văn phòng</t>
+  </si>
+  <si>
+    <t>CP máy tính, máy in</t>
+  </si>
+  <si>
+    <t>CP mực in</t>
+  </si>
+  <si>
+    <t>CP giá để hàng</t>
+  </si>
+  <si>
+    <t>CP CCDC khác</t>
+  </si>
+  <si>
+    <t>CP khác</t>
+  </si>
+  <si>
+    <t>CP văn phòng phẩm</t>
+  </si>
+  <si>
+    <t>CP tiền cúng ông thần tài</t>
+  </si>
+  <si>
+    <t>CP nước uống</t>
+  </si>
+  <si>
+    <t>CP giấy và dụng cụ vệ sinh</t>
+  </si>
+  <si>
+    <t>CP Qùa tết KH, NCC</t>
+  </si>
+  <si>
+    <t>CP trang trí văn phòng</t>
+  </si>
+  <si>
+    <t>CP quảng bá thương hiệu</t>
+  </si>
+  <si>
+    <t>Phí ngân hàng</t>
+  </si>
+  <si>
+    <t>Chi phí xưởng</t>
+  </si>
+  <si>
+    <t>Chi phí quản lý xưởng</t>
+  </si>
+  <si>
+    <t>Chi phí vật tư xưởng</t>
+  </si>
+  <si>
+    <t>Chi phí vật tư dùng chung</t>
+  </si>
+  <si>
+    <t>Chi phí quản Trường An</t>
+  </si>
+  <si>
+    <t>Chi phí quản lýTrường An</t>
+  </si>
+  <si>
+    <t>Chi phí hoa hồng Trường An</t>
+  </si>
+  <si>
+    <t>Chi phí mua hàng Trường An</t>
+  </si>
+  <si>
+    <t>Chi nâng cấp phần mềm</t>
+  </si>
+  <si>
+    <t>Thu nhập khác</t>
+  </si>
+  <si>
+    <t>Chi phí thuế thu nhập doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Xác định kết quả kinh doanh</t>
+  </si>
+  <si>
+    <t>Dư Nợ</t>
+  </si>
+  <si>
+    <t>Lưỡng tính</t>
+  </si>
+  <si>
+    <t>Dư Có</t>
+  </si>
+  <si>
+    <t>Cash in hand</t>
+  </si>
+  <si>
+    <t>Vietnam dong</t>
+  </si>
+  <si>
+    <t>Foreign currency</t>
+  </si>
+  <si>
+    <t>Cash in bank</t>
+  </si>
+  <si>
+    <t>Securities trading</t>
+  </si>
+  <si>
+    <t>Other short - term investment</t>
+  </si>
+  <si>
+    <t>Term deposits</t>
+  </si>
+  <si>
+    <t>Accounts receivable - trade</t>
+  </si>
+  <si>
+    <t>VAT deducted</t>
+  </si>
+  <si>
+    <t>VAT deduction of goods, services</t>
+  </si>
+  <si>
+    <t>VAT deduction of fixed assets</t>
+  </si>
+  <si>
+    <t>Intercompany receivable</t>
+  </si>
+  <si>
+    <t>Investment in equity of subsidiaries</t>
+  </si>
+  <si>
+    <t>Other receivable from subsidiaries</t>
+  </si>
+  <si>
+    <t>Other receivable</t>
+  </si>
+  <si>
+    <t>Shortage of assets awaiting resolution</t>
+  </si>
+  <si>
+    <t>Deposits, mortgages and collateral</t>
+  </si>
+  <si>
+    <t>Advances</t>
+  </si>
+  <si>
+    <t>Goods in transit</t>
+  </si>
+  <si>
+    <t>Raw materials</t>
+  </si>
+  <si>
+    <t>Tools and supplies</t>
+  </si>
+  <si>
+    <t>Work in progress</t>
+  </si>
+  <si>
+    <t>Finished goods</t>
+  </si>
+  <si>
+    <t>Merchandise inventory</t>
+  </si>
+  <si>
+    <t>Goods on consignment</t>
+  </si>
+  <si>
+    <t>Fixed assets</t>
+  </si>
+  <si>
+    <t>Tangible fixed assets</t>
+  </si>
+  <si>
+    <t>Houses and architectural</t>
+  </si>
+  <si>
+    <t>Equipment &amp; machines</t>
+  </si>
+  <si>
+    <t>Means of transport, conveyance equipment</t>
+  </si>
+  <si>
+    <t>Managerial equipment and instruments</t>
+  </si>
+  <si>
+    <t>Long term trees, working &amp; killed animals</t>
+  </si>
+  <si>
+    <t>Fixed assets are high value infrastructure funded from State Budget, transferred to business entities to manage, exploit, use</t>
+  </si>
+  <si>
+    <t>Other tangible fixed assets</t>
+  </si>
+  <si>
+    <t>Financial leasing fixed assets</t>
+  </si>
+  <si>
+    <t>Intangible fixed assets</t>
+  </si>
+  <si>
+    <t>Land using right</t>
+  </si>
+  <si>
+    <t>Distribution rights</t>
+  </si>
+  <si>
+    <t>Copyright, patents</t>
+  </si>
+  <si>
+    <t>Trademark</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>License and right concession permits</t>
+  </si>
+  <si>
+    <t>Other intangible fixed assets</t>
+  </si>
+  <si>
+    <t>Depreciation of fixed assets</t>
+  </si>
+  <si>
+    <t>Tangible fixed assets depreciation</t>
+  </si>
+  <si>
+    <t>Financial leasing fixed assets depreciation</t>
+  </si>
+  <si>
+    <t>Intangible fixed assets depreciation</t>
+  </si>
+  <si>
+    <t>Investment real estate depreciation</t>
+  </si>
+  <si>
+    <t>Investment real estate</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Joint venture capital contribution</t>
+  </si>
+  <si>
+    <t>Other long term investments</t>
+  </si>
+  <si>
+    <t>Provision for decline in long term investments</t>
+  </si>
+  <si>
+    <t>Provision for the diminution in value of short-term investments</t>
+  </si>
+  <si>
+    <t>Provision for bad debts</t>
+  </si>
+  <si>
+    <t>Provision for decline in inventory</t>
+  </si>
+  <si>
+    <t>Construction in process</t>
+  </si>
+  <si>
+    <t>Fixed assets purchases</t>
+  </si>
+  <si>
+    <t>Major repair of fixed assets</t>
+  </si>
+  <si>
+    <t>Long-term prepaid expenses</t>
+  </si>
+  <si>
+    <t>Prepaid expenses</t>
+  </si>
+  <si>
+    <t>Payable to seller</t>
+  </si>
+  <si>
+    <t>Taxes and payable to state budget</t>
+  </si>
+  <si>
+    <t>Value Added Tax</t>
+  </si>
+  <si>
+    <t>VAT output</t>
+  </si>
+  <si>
+    <t>VAT for imported goods</t>
+  </si>
+  <si>
+    <t>Special consumption tax</t>
+  </si>
+  <si>
+    <t>Import &amp; export duties</t>
+  </si>
+  <si>
+    <t>Profit tax</t>
+  </si>
+  <si>
+    <t>Personal income tax</t>
+  </si>
+  <si>
+    <t>Natural resource tax</t>
+  </si>
+  <si>
+    <t>Land &amp; housing tax, land rental charges</t>
+  </si>
+  <si>
+    <t>Invironmental protection tax and other taxes</t>
+  </si>
+  <si>
+    <t>Invironmental protection tax</t>
+  </si>
+  <si>
+    <t>Other taxes</t>
+  </si>
+  <si>
+    <t>Fee &amp; charge &amp; other payables</t>
+  </si>
+  <si>
+    <t>Payable to employees</t>
+  </si>
+  <si>
+    <t>Accruals</t>
+  </si>
+  <si>
+    <t>Internal payable</t>
+  </si>
+  <si>
+    <t>Internal payable on capital</t>
+  </si>
+  <si>
+    <t>Other internal payable</t>
+  </si>
+  <si>
+    <t>Other payable</t>
+  </si>
+  <si>
+    <t>Surplus assets awaiting for resolution</t>
+  </si>
+  <si>
+    <t>Trade Union fees</t>
+  </si>
+  <si>
+    <t>Social insurance</t>
+  </si>
+  <si>
+    <t>Health insurance</t>
+  </si>
+  <si>
+    <t>Unemployment insurance</t>
+  </si>
+  <si>
+    <t>Short-term deposits received</t>
+  </si>
+  <si>
+    <t>Long-term deposits received</t>
+  </si>
+  <si>
+    <t>Unrealized turnover</t>
+  </si>
+  <si>
+    <t>Long-term borrowing and liabilities</t>
+  </si>
+  <si>
+    <t>Long-term borrowing</t>
+  </si>
+  <si>
+    <t>Short-term loan</t>
+  </si>
+  <si>
+    <t>Long-term liabilites</t>
+  </si>
+  <si>
+    <t>Long term loans due to date</t>
+  </si>
+  <si>
+    <t>Provisions for payables</t>
+  </si>
+  <si>
+    <t>Product warranty provision</t>
+  </si>
+  <si>
+    <t>Construction warranty provision</t>
+  </si>
+  <si>
+    <t>Other payables provision</t>
+  </si>
+  <si>
+    <t>Bonus &amp; welfare funds</t>
+  </si>
+  <si>
+    <t>Bonus fund</t>
+  </si>
+  <si>
+    <t>Welfare fund</t>
+  </si>
+  <si>
+    <t>Welfare fund used to acquire fixed assets</t>
+  </si>
+  <si>
+    <t>Reward fund for management and operating company</t>
+  </si>
+  <si>
+    <t>Development of science and technology fund</t>
+  </si>
+  <si>
+    <t>Development of science and technology fund used to fixed assets</t>
+  </si>
+  <si>
+    <t>Working capital</t>
+  </si>
+  <si>
+    <t>Contributed legal capital</t>
+  </si>
+  <si>
+    <t>Share premium</t>
+  </si>
+  <si>
+    <t>Other capital</t>
+  </si>
+  <si>
+    <t>Foreign exchange differences</t>
+  </si>
+  <si>
+    <t>Other funds</t>
+  </si>
+  <si>
+    <t>Treasury stock</t>
+  </si>
+  <si>
+    <t>Undistributed earnings</t>
+  </si>
+  <si>
+    <t>Previous year undistributed earnings</t>
+  </si>
+  <si>
+    <t>This year undistributed earnings</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Goods sale</t>
+  </si>
+  <si>
+    <t>Sale returns</t>
+  </si>
+  <si>
+    <t>Finished product sale</t>
+  </si>
+  <si>
+    <t>Turnover from service provision</t>
+  </si>
+  <si>
+    <t>Other sales</t>
+  </si>
+  <si>
+    <t>Turnover from financial operations</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Production cost</t>
+  </si>
+  <si>
+    <t>Cost of goods sold</t>
+  </si>
+  <si>
+    <t>Financial activities expenses</t>
+  </si>
+  <si>
+    <t>Business management expenses</t>
+  </si>
+  <si>
+    <t>Selling expenses</t>
+  </si>
+  <si>
+    <t>General &amp; administration expenses</t>
+  </si>
+  <si>
+    <t>Other income</t>
+  </si>
+  <si>
+    <t>Other expenses</t>
+  </si>
+  <si>
+    <t>Business Income tax charge</t>
+  </si>
+  <si>
+    <t>Evaluation of business results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,7 +1862,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -80,14 +1885,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,18 +2231,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="49.85546875" customWidth="1"/>
   </cols>
@@ -426,279 +2268,3922 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E3" s="1">
+        <v>111</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E4" s="1">
+        <v>111</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E6" s="1">
+        <v>112</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E7" s="1">
+        <v>112</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E10" s="1">
+        <v>128</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E11" s="1">
+        <v>128</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E14" s="1">
+        <v>133</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E15" s="1">
+        <v>133</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>483</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E17" s="1">
+        <v>136</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E18" s="1">
+        <v>136</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>486</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E20" s="1">
+        <v>138</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E21" s="1">
+        <v>138</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E22" s="1">
+        <v>138</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E23" s="1">
+        <v>138</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>489</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E25" s="1">
+        <v>141</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E26" s="1">
+        <v>141</v>
+      </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>490</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>491</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>492</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E31" s="1">
+        <v>154</v>
+      </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E32" s="1">
+        <v>154</v>
+      </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1542</v>
+      </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1542</v>
+      </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1542</v>
+      </c>
       <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E43">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E44">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E45">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E48">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E51">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E52">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E53">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E54">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E55">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E56">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E57">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E58">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E61">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E62">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E63">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E64">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E65">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E66">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E67">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E69">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E70">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E71">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E72">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E75">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E76">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E78">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E79">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E80">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E81">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E83">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E84">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E85">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E87">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E90">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E91">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E92">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E93">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E94">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E95">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E96">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E97">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E98">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E99">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E100">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E101">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E102">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E106">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E107">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E109">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E110">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E111">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E112">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E113">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E114">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E115">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E116">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E117">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E118">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E120">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E121">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E122">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E123">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E124">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E126">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E127">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E128">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E130">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E131">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E132">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E133">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E135">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E136">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E138">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E139">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E140">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E145">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E146">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E148">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E149">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E150">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E151">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E152">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E153">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E160">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E161">
+        <v>6421</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E162">
+        <v>64211</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E163">
+        <v>64211</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E164">
+        <v>64211</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E165">
+        <v>64211</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E166">
+        <v>64211</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E167">
+        <v>64211</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E168">
+        <v>64211</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E169">
+        <v>64211</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E170">
+        <v>6421</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E171">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E172">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E173">
+        <v>64221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E174">
+        <v>64221</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E175">
+        <v>64221</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E176">
+        <v>64221</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E177">
+        <v>64221</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E178">
+        <v>64221</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E179">
+        <v>64221</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E180">
+        <v>64221</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E181">
+        <v>64221</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E182">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E183">
+        <v>64222</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E184">
+        <v>64222</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E185">
+        <v>64222</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E186">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E187">
+        <v>64223</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E188">
+        <v>64223</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E189">
+        <v>64223</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E190">
+        <v>64223</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E191">
+        <v>64223</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E192">
+        <v>64223</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E193">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E194">
+        <v>64224</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E195">
+        <v>64224</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E196">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E197">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E198">
+        <v>64226</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E199">
+        <v>64226</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E200">
+        <v>64226</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E201">
+        <v>64226</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E202">
+        <v>64226</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E203">
+        <v>64226</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E204">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E205">
+        <v>64227</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E206">
+        <v>64227</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E207">
+        <v>64227</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E208">
+        <v>64227</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E209">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E210">
+        <v>64228</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E211">
+        <v>64228</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E212">
+        <v>64228</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E213">
+        <v>64228</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E214">
+        <v>64228</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E215">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E216">
+        <v>64229</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E217">
+        <v>64229</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E218">
+        <v>64229</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E219">
+        <v>64229</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E220">
+        <v>64229</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E221">
+        <v>64229</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E222">
+        <v>64229</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E223">
+        <v>64229</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E224">
+        <v>64229</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E225">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E226">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E227">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E228">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E229">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E230">
+        <v>6424</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E231">
+        <v>6424</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E232">
+        <v>6424</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E233">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>605</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>[1]ValueList_Helper!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C237</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
